--- a/Trabecular Bone Results.xlsx
+++ b/Trabecular Bone Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Bone Remodeling Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AFE4A0-943C-450A-8876-6460A0758440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C195E51-5CD5-419F-B07E-E6EA7DF8D3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WT FormResorb" sheetId="5" r:id="rId1"/>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="73">
   <si>
     <t>formation_37</t>
   </si>
   <si>
-    <t>wk2_amod</t>
-  </si>
-  <si>
     <t>wk3_amod</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
     <t>resorption_37</t>
   </si>
   <si>
-    <t>wk2_cmod</t>
-  </si>
-  <si>
     <t>wk3_cmod</t>
   </si>
   <si>
@@ -77,12 +71,6 @@
     <t>wk5_cmod</t>
   </si>
   <si>
-    <t>wk6_cmod</t>
-  </si>
-  <si>
-    <t>wk7_cmod</t>
-  </si>
-  <si>
     <t>wk3_remod_form</t>
   </si>
   <si>
@@ -188,9 +176,6 @@
     <t>24 R</t>
   </si>
   <si>
-    <t>tv</t>
-  </si>
-  <si>
     <t>bvtv2</t>
   </si>
   <si>
@@ -237,6 +222,42 @@
   </si>
   <si>
     <t>SOST KO Trabecular Modeling and Remodeling</t>
+  </si>
+  <si>
+    <t>wk2_form</t>
+  </si>
+  <si>
+    <t>wk3_form</t>
+  </si>
+  <si>
+    <t>wk4_form</t>
+  </si>
+  <si>
+    <t>wk5_form</t>
+  </si>
+  <si>
+    <t>wk6_form</t>
+  </si>
+  <si>
+    <t>wk7_form</t>
+  </si>
+  <si>
+    <t>wk2_resorb</t>
+  </si>
+  <si>
+    <t>wk3_resorb</t>
+  </si>
+  <si>
+    <t>wk4_resorb</t>
+  </si>
+  <si>
+    <t>wk5_resorb</t>
+  </si>
+  <si>
+    <t>wk6_resorb</t>
+  </si>
+  <si>
+    <t>wk7_resorb</t>
   </si>
 </sst>
 </file>
@@ -572,8 +593,8 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,33 +610,33 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -623,846 +644,846 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>4.8923375000000005E-2</v>
+        <v>6.1464250000000012E-2</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.4035750000000015E-2</v>
+        <v>0.11726787500000002</v>
       </c>
       <c r="E3" t="s">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.4284500000000011E-2</v>
+        <v>5.5382875000000012E-2</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6.2890000000000015E-2</v>
+        <v>8.0255250000000014E-2</v>
       </c>
       <c r="I3" t="s">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.3003375000000005E-2</v>
+        <v>6.4433375000000015E-2</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.5993500000000024E-2</v>
+        <v>8.6902125000000011E-2</v>
       </c>
       <c r="M3" t="s">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>4.3607625000000004E-2</v>
+        <v>5.6011749999999999E-2</v>
       </c>
       <c r="O3" t="s">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>6.1235250000000019E-2</v>
+        <v>8.1185375000000018E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B4">
-        <v>1.5583125000000003E-2</v>
+        <v>2.1799125000000003E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>2.2133750000000004E-2</v>
+        <v>2.9633375000000003E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F4">
-        <v>1.3150750000000003E-2</v>
+        <v>1.7513875000000002E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="H4">
-        <v>1.4832000000000003E-2</v>
+        <v>2.0618000000000004E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="J4">
-        <v>1.9854500000000004E-2</v>
+        <v>2.5023500000000004E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="L4">
-        <v>2.1715500000000002E-2</v>
+        <v>2.8815125000000004E-2</v>
       </c>
       <c r="M4" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="N4">
-        <v>1.4618000000000003E-2</v>
+        <v>2.0330625000000005E-2</v>
       </c>
       <c r="O4" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="P4">
-        <v>1.7221000000000004E-2</v>
+        <v>2.3196625000000005E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B5">
-        <v>1.6051250000000003E-2</v>
+        <v>2.0537500000000004E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>2.5005375000000003E-2</v>
+        <v>3.2454375000000008E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F5">
-        <v>1.1813750000000001E-2</v>
+        <v>1.4979500000000003E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="H5">
-        <v>1.5152750000000003E-2</v>
+        <v>1.9567625000000002E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="J5">
-        <v>1.5133500000000003E-2</v>
+        <v>1.8974250000000002E-2</v>
       </c>
       <c r="K5" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="L5">
-        <v>1.7418500000000003E-2</v>
+        <v>2.4006375000000003E-2</v>
       </c>
       <c r="M5" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="N5">
-        <v>1.2260750000000003E-2</v>
+        <v>1.6293625000000003E-2</v>
       </c>
       <c r="O5" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="P5">
-        <v>1.5917250000000004E-2</v>
+        <v>2.3010500000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B6">
-        <v>9.7340000000000013E-3</v>
+        <v>1.2814125000000003E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>1.9137500000000002E-2</v>
+        <v>2.3542500000000004E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="F6">
-        <v>1.0286000000000002E-2</v>
+        <v>1.3407000000000002E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="H6">
-        <v>1.4594250000000003E-2</v>
+        <v>1.9474500000000002E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="J6">
-        <v>1.1708125000000002E-2</v>
+        <v>1.4462125000000003E-2</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="L6">
-        <v>1.3765625000000002E-2</v>
+        <v>1.8350000000000002E-2</v>
       </c>
       <c r="M6" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="N6">
-        <v>9.0818750000000014E-3</v>
+        <v>1.2510625000000003E-2</v>
       </c>
       <c r="O6" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="P6">
-        <v>1.4295750000000003E-2</v>
+        <v>1.8502375000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B7">
-        <v>9.7985000000000017E-3</v>
+        <v>1.2329750000000002E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>2.0931750000000002E-2</v>
+        <v>2.7269000000000005E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F7">
-        <v>8.6415000000000016E-3</v>
+        <v>1.0121875000000002E-2</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="H7">
-        <v>1.2379500000000002E-2</v>
+        <v>1.5689500000000002E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="J7">
-        <v>9.819625000000002E-3</v>
+        <v>1.2096500000000001E-2</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="L7">
-        <v>1.2354750000000003E-2</v>
+        <v>1.7380625000000004E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="N7">
-        <v>8.6853750000000021E-3</v>
+        <v>1.0880375000000001E-2</v>
       </c>
       <c r="O7" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="P7">
-        <v>1.1339875000000003E-2</v>
+        <v>1.4834250000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B8">
-        <v>6.6828750000000013E-3</v>
+        <v>7.7466250000000009E-3</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>1.5833375000000004E-2</v>
+        <v>1.7930250000000002E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="F8">
-        <v>6.8730000000000015E-3</v>
+        <v>9.0695000000000012E-3</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="H8">
-        <v>1.0076500000000002E-2</v>
+        <v>1.2429375000000003E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J8">
-        <v>8.7625000000000012E-3</v>
+        <v>1.0451125000000002E-2</v>
       </c>
       <c r="K8" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="L8">
-        <v>1.3476875000000003E-2</v>
+        <v>1.5924875000000002E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="N8">
-        <v>6.9691250000000014E-3</v>
+        <v>8.5088750000000008E-3</v>
       </c>
       <c r="O8" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="P8">
-        <v>1.1024625000000001E-2</v>
+        <v>1.3648250000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B9">
-        <v>6.6567500000000012E-3</v>
+        <v>8.0362500000000017E-3</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>1.3127750000000002E-2</v>
+        <v>1.6071750000000003E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="F9">
-        <v>6.6702500000000008E-3</v>
+        <v>7.8050000000000012E-3</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="H9">
-        <v>1.0687000000000002E-2</v>
+        <v>1.3094250000000002E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="J9">
-        <v>7.5796250000000013E-3</v>
+        <v>8.449375000000002E-3</v>
       </c>
       <c r="K9" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="L9">
-        <v>8.9777500000000014E-3</v>
+        <v>1.1240250000000002E-2</v>
       </c>
       <c r="M9" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="N9">
-        <v>6.6105000000000009E-3</v>
+        <v>7.8182500000000005E-3</v>
       </c>
       <c r="O9" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="P9">
-        <v>8.6577500000000022E-3</v>
+        <v>1.1190000000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>-9.5453625000000014E-2</v>
+        <v>-0.102422125</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>-0.12476062500000001</v>
+        <v>-0.13834487500000003</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>-8.3220125000000006E-2</v>
+        <v>-9.0019750000000009E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>-7.9629000000000005E-2</v>
+        <v>-9.0737375000000009E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>-0.10771000000000003</v>
+        <v>-0.11408637500000003</v>
       </c>
       <c r="K10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L10">
-        <v>-0.12088962500000003</v>
+        <v>-0.13331625000000003</v>
       </c>
       <c r="M10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N10">
-        <v>-0.10066237500000001</v>
+        <v>-0.10794300000000001</v>
       </c>
       <c r="O10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P10">
-        <v>-0.10608412500000002</v>
+        <v>-0.11696050000000001</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B11">
-        <v>-3.1758750000000002E-2</v>
+        <v>-3.5380375000000006E-2</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>-3.3829500000000005E-2</v>
+        <v>-3.9466875000000005E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F11">
-        <v>-2.4332125000000003E-2</v>
+        <v>-2.6998625000000005E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="H11">
-        <v>-2.4196625000000003E-2</v>
+        <v>-2.7616500000000006E-2</v>
       </c>
       <c r="I11" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="J11">
-        <v>-3.7738500000000008E-2</v>
+        <v>-4.0908500000000007E-2</v>
       </c>
       <c r="K11" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="L11">
-        <v>-3.6360875000000008E-2</v>
+        <v>-4.1901750000000008E-2</v>
       </c>
       <c r="M11" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="N11">
-        <v>-3.7013125000000008E-2</v>
+        <v>-4.0416875000000005E-2</v>
       </c>
       <c r="O11" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="P11">
-        <v>-3.4866500000000009E-2</v>
+        <v>-4.1005125000000003E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B12">
-        <v>-2.5812875000000006E-2</v>
+        <v>-2.8451500000000005E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>-3.2524250000000005E-2</v>
+        <v>-3.6216625000000009E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F12">
-        <v>-2.5320750000000003E-2</v>
+        <v>-2.7913000000000004E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="H12">
-        <v>-2.0330250000000005E-2</v>
+        <v>-2.4425500000000003E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="J12">
-        <v>-3.2441250000000005E-2</v>
+        <v>-3.4603750000000003E-2</v>
       </c>
       <c r="K12" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="L12">
-        <v>-2.8855750000000006E-2</v>
+        <v>-3.2587375000000009E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="N12">
-        <v>-3.3259500000000004E-2</v>
+        <v>-3.6261125000000005E-2</v>
       </c>
       <c r="O12" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="P12">
-        <v>-2.6093125000000005E-2</v>
+        <v>-2.9415625000000004E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B13">
-        <v>-2.2309000000000002E-2</v>
+        <v>-2.4392250000000004E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D13">
-        <v>-2.9012125000000003E-2</v>
+        <v>-3.4253750000000006E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F13">
-        <v>-1.6469625000000002E-2</v>
+        <v>-1.7560125000000003E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="H13">
-        <v>-1.3964250000000003E-2</v>
+        <v>-1.6610875000000004E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="J13">
-        <v>-2.7328125000000005E-2</v>
+        <v>-2.9276750000000004E-2</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="L13">
-        <v>-2.4936625000000004E-2</v>
+        <v>-2.9254000000000006E-2</v>
       </c>
       <c r="M13" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="N13">
-        <v>-2.0207625000000003E-2</v>
+        <v>-2.2006625000000005E-2</v>
       </c>
       <c r="O13" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="P13">
-        <v>-1.8374250000000002E-2</v>
+        <v>-2.1152000000000004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B14">
-        <v>-1.6972250000000001E-2</v>
+        <v>-1.7940500000000002E-2</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D14">
-        <v>-1.8916000000000002E-2</v>
+        <v>-2.0800125000000003E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F14">
-        <v>-1.8490250000000003E-2</v>
+        <v>-2.0598000000000002E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="H14">
-        <v>-1.5217875000000002E-2</v>
+        <v>-1.7362375000000003E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="J14">
-        <v>-1.4854875000000002E-2</v>
+        <v>-1.6378250000000004E-2</v>
       </c>
       <c r="K14" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="L14">
-        <v>-1.8207875000000002E-2</v>
+        <v>-2.0438125000000005E-2</v>
       </c>
       <c r="M14" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="N14">
-        <v>-1.7587375000000002E-2</v>
+        <v>-1.8986875000000004E-2</v>
       </c>
       <c r="O14" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="P14">
-        <v>-1.7878125000000002E-2</v>
+        <v>-2.0259500000000003E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B15">
-        <v>-1.6868750000000002E-2</v>
+        <v>-1.8147125000000004E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D15">
-        <v>-2.1594750000000003E-2</v>
+        <v>-2.4360875000000004E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F15">
-        <v>-1.2133250000000002E-2</v>
+        <v>-1.3142375000000003E-2</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="H15">
-        <v>-1.3373500000000002E-2</v>
+        <v>-1.5595500000000003E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J15">
-        <v>-1.5897875000000002E-2</v>
+        <v>-1.6639750000000002E-2</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="L15">
-        <v>-2.1136000000000002E-2</v>
+        <v>-2.3283375000000005E-2</v>
       </c>
       <c r="M15" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="N15">
-        <v>-1.5979000000000004E-2</v>
+        <v>-1.7059500000000002E-2</v>
       </c>
       <c r="O15" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="P15">
-        <v>-1.9983000000000004E-2</v>
+        <v>-2.2377750000000005E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B16">
         <v>-1.3490750000000003E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D16">
         <v>-2.2713500000000005E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F16">
         <v>-1.0806250000000002E-2</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H16">
         <v>-1.6743125000000001E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="J16">
         <v>-1.7187875000000002E-2</v>
       </c>
       <c r="K16" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="L16">
         <v>-2.7753375000000004E-2</v>
       </c>
       <c r="M16" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="N16">
         <v>-1.3628875000000002E-2</v>
       </c>
       <c r="O16" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="P16">
         <v>-2.3755625000000002E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>0.69936868889925297</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17">
-        <v>0.9328133718551217</v>
-      </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17">
-        <v>0.64079208207324656</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17">
-        <v>0.84034567884738098</v>
-      </c>
-      <c r="I17" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17">
-        <v>0.6517365983667659</v>
-      </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17">
-        <v>0.73718148319325982</v>
-      </c>
-      <c r="M17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17">
-        <v>0.51874933085899855</v>
-      </c>
-      <c r="O17" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17">
-        <v>0.68319180418632486</v>
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.87864281515075204</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.1632707974258187</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.80138440724073556</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.0723827721786654</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.79228140932139168</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.97074162455614643</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.66630681750591803</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.9057721299381214</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>-1.3645272135647011</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18">
-        <v>-1.2375971827842325</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18">
-        <v>-1.2041865024815868</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18">
-        <v>-1.064014725090445</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18">
-        <v>-1.3244165868698807</v>
-      </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18">
-        <v>-1.3503995554134418</v>
-      </c>
-      <c r="M18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18">
-        <v>-1.197463509510724</v>
-      </c>
-      <c r="O18" t="s">
-        <v>20</v>
-      </c>
-      <c r="P18">
-        <v>-1.1835634663739856</v>
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-1.4641432091617839</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-1.3723498704229544</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-1.3025763648728819</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="1">
+        <v>-1.2124465096391217</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-1.402821347932943</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-1.4892113754955172</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="1">
+        <v>-1.2840726597908712</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="1">
+        <v>-1.3049094273892019</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>6.9953625000000005E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>0.10080875000000002</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F19">
         <v>6.9109000000000018E-2</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H19">
         <v>7.4838250000000009E-2</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J19">
         <v>8.132637500000002E-2</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L19">
         <v>8.9521375000000014E-2</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N19">
         <v>8.4063000000000013E-2</v>
       </c>
       <c r="O19" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P19">
         <v>8.963112500000002E-2</v>
@@ -1470,49 +1491,49 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>6.195187500000001E-2</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>9.6954625000000016E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F20">
         <v>5.6129500000000013E-2</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H20">
         <v>6.9830500000000018E-2</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J20">
         <v>6.5622250000000007E-2</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L20">
         <v>8.0905125000000008E-2</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N20">
         <v>6.4071000000000017E-2</v>
       </c>
       <c r="O20" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P20">
         <v>8.3156750000000015E-2</v>
@@ -1520,49 +1541,49 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>5.0271750000000011E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>8.6203500000000016E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F21">
         <v>5.198425000000001E-2</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H21">
         <v>7.2690875000000016E-2</v>
       </c>
       <c r="I21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J21">
         <v>5.0734625000000005E-2</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L21">
         <v>6.9906875000000007E-2</v>
       </c>
       <c r="M21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N21">
         <v>5.4559375000000007E-2</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P21">
         <v>8.0493000000000009E-2</v>
@@ -1570,49 +1591,49 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>4.4689750000000007E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D22">
         <v>9.2649625000000013E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F22">
         <v>4.1477125000000004E-2</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H22">
         <v>7.0961625000000014E-2</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J22">
         <v>4.6452500000000008E-2</v>
       </c>
       <c r="K22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L22">
         <v>6.6858000000000015E-2</v>
       </c>
       <c r="M22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>4.644437500000001E-2</v>
       </c>
       <c r="O22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P22">
         <v>7.5029500000000013E-2</v>
@@ -1620,49 +1641,49 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>3.4290875000000005E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>8.6125750000000015E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F23">
         <v>3.7386125000000006E-2</v>
       </c>
       <c r="G23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H23">
         <v>6.7770000000000011E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J23">
         <v>4.0249500000000007E-2</v>
       </c>
       <c r="K23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L23">
         <v>5.9417375000000008E-2</v>
       </c>
       <c r="M23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N23">
         <v>3.7834500000000007E-2</v>
       </c>
       <c r="O23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P23">
         <v>6.6217000000000012E-2</v>
@@ -1670,49 +1691,49 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>2.8853125000000004E-2</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D24">
         <v>7.9476000000000019E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F24">
         <v>3.4339250000000009E-2</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H24">
         <v>6.4145125000000011E-2</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J24">
         <v>3.1457125000000002E-2</v>
       </c>
       <c r="K24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L24">
         <v>4.2841500000000005E-2</v>
       </c>
       <c r="M24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>3.2008000000000009E-2</v>
       </c>
       <c r="O24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P24">
         <v>5.3631000000000012E-2</v>
@@ -1720,699 +1741,649 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B25">
-        <v>1.4071403750000002</v>
+        <v>4.9713323732893382E-2</v>
       </c>
       <c r="C25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>1.5649715000000002</v>
+        <v>6.4415709806855917E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F25">
-        <v>1.2837615000000002</v>
+        <v>5.3833208115370346E-2</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H25">
-        <v>1.3702182500000002</v>
+        <v>5.4617758886221224E-2</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J25">
-        <v>1.4035957500000003</v>
+        <v>5.7941451447113608E-2</v>
       </c>
       <c r="K25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L25">
-        <v>1.4613336250000002</v>
+        <v>6.1260052782265928E-2</v>
       </c>
       <c r="M25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N25">
-        <v>1.4999141250000003</v>
+        <v>5.6045208588191668E-2</v>
       </c>
       <c r="O25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P25">
-        <v>1.4666895000000002</v>
+        <v>6.1111179291867851E-2</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B26">
-        <v>4.9713323732893382E-2</v>
+        <v>4.402679085944073E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>6.4415709806855917E-2</v>
+        <v>6.1952965277642442E-2</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F26">
-        <v>5.3833208115370346E-2</v>
+        <v>4.372268524955765E-2</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H26">
-        <v>5.4617758886221224E-2</v>
+        <v>5.0963049134690776E-2</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J26">
-        <v>5.7941451447113608E-2</v>
+        <v>4.6752955756669962E-2</v>
       </c>
       <c r="K26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L26">
-        <v>6.1260052782265928E-2</v>
+        <v>5.536389748097393E-2</v>
       </c>
       <c r="M26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N26">
-        <v>5.6045208588191668E-2</v>
+        <v>4.2716445516505823E-2</v>
       </c>
       <c r="O26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P26">
-        <v>6.1111179291867851E-2</v>
+        <v>5.6696901423239209E-2</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B27">
-        <v>4.402679085944073E-2</v>
+        <v>3.5726179770799345E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>6.1952965277642442E-2</v>
+        <v>5.5083111737178607E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F27">
-        <v>4.372268524955765E-2</v>
+        <v>4.0493697622182939E-2</v>
       </c>
       <c r="G27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H27">
-        <v>5.0963049134690776E-2</v>
+        <v>5.3050581540568451E-2</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J27">
-        <v>4.6752955756669962E-2</v>
+        <v>3.614618026593483E-2</v>
       </c>
       <c r="K27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L27">
-        <v>5.536389748097393E-2</v>
+        <v>4.7837724256841074E-2</v>
       </c>
       <c r="M27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N27">
-        <v>4.2716445516505823E-2</v>
+        <v>3.637499913536716E-2</v>
       </c>
       <c r="O27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P27">
-        <v>5.6696901423239209E-2</v>
+        <v>5.4880736515806515E-2</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B28">
-        <v>3.5726179770799345E-2</v>
+        <v>3.1759269220030729E-2</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>5.5083111737178607E-2</v>
+        <v>5.9202116460267809E-2</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F28">
-        <v>4.0493697622182939E-2</v>
+        <v>3.2309058185652086E-2</v>
       </c>
       <c r="G28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H28">
-        <v>5.3050581540568451E-2</v>
+        <v>5.1788556312105757E-2</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J28">
-        <v>3.614618026593483E-2</v>
+        <v>3.3095355268780199E-2</v>
       </c>
       <c r="K28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L28">
-        <v>4.7837724256841074E-2</v>
+        <v>4.5751359481651564E-2</v>
       </c>
       <c r="M28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N28">
-        <v>3.637499913536716E-2</v>
+        <v>3.096468939513454E-2</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P28">
-        <v>5.4880736515806515E-2</v>
+        <v>5.115568087178643E-2</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B29">
-        <v>3.1759269220030729E-2</v>
+        <v>2.4369192732459261E-2</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>5.9202116460267809E-2</v>
+        <v>5.5033430321255052E-2</v>
       </c>
       <c r="E29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F29">
-        <v>3.2309058185652086E-2</v>
+        <v>2.9122329186535036E-2</v>
       </c>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H29">
-        <v>5.1788556312105757E-2</v>
+        <v>4.9459274097392883E-2</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J29">
-        <v>3.3095355268780199E-2</v>
+        <v>2.8675991645030274E-2</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L29">
-        <v>4.5751359481651564E-2</v>
+        <v>4.0659691930376267E-2</v>
       </c>
       <c r="M29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N29">
-        <v>3.096468939513454E-2</v>
+        <v>2.5224444099424693E-2</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P29">
-        <v>5.115568087178643E-2</v>
+        <v>4.5147251684831725E-2</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B30">
-        <v>2.4369192732459261E-2</v>
+        <v>2.050479505287452E-2</v>
       </c>
       <c r="C30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>5.5033430321255052E-2</v>
+        <v>5.0784311407587941E-2</v>
       </c>
       <c r="E30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F30">
-        <v>2.9122329186535036E-2</v>
+        <v>2.6748932726211219E-2</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H30">
-        <v>4.9459274097392883E-2</v>
+        <v>4.6813801377992161E-2</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J30">
-        <v>2.8675991645030274E-2</v>
+        <v>2.241181266044728E-2</v>
       </c>
       <c r="K30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L30">
-        <v>4.0659691930376267E-2</v>
+        <v>2.9316714039205112E-2</v>
       </c>
       <c r="M30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N30">
-        <v>2.5224444099424693E-2</v>
+        <v>2.1339888375276152E-2</v>
       </c>
       <c r="O30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P30">
-        <v>4.5147251684831725E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31">
-        <v>2.050479505287452E-2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31">
-        <v>5.0784311407587941E-2</v>
-      </c>
-      <c r="E31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31">
-        <v>2.6748932726211219E-2</v>
-      </c>
-      <c r="G31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31">
-        <v>4.6813801377992161E-2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31">
-        <v>2.241181266044728E-2</v>
-      </c>
-      <c r="K31" t="s">
-        <v>55</v>
-      </c>
-      <c r="L31">
-        <v>2.9316714039205112E-2</v>
-      </c>
-      <c r="M31" t="s">
-        <v>55</v>
-      </c>
-      <c r="N31">
-        <v>2.1339888375276152E-2</v>
-      </c>
-      <c r="O31" t="s">
-        <v>55</v>
-      </c>
-      <c r="P31">
         <v>3.6566021642617609E-2</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B32">
-        <f>B26/B26</f>
+        <f>B25/$B$25</f>
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <f>D26/D26</f>
+        <f>D25/$D$25</f>
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F32">
-        <f>F26/F26</f>
+        <f>F25/$F$25</f>
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H32">
-        <f>H26/H26</f>
+        <f>H25/$H$25</f>
         <v>1</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J32">
-        <f>J26/J26</f>
+        <f>J25/$J$25</f>
         <v>1</v>
       </c>
       <c r="K32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L32">
-        <f>L26/L26</f>
+        <f>L25/$L$25</f>
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N32">
-        <f>N26/N26</f>
+        <f>N25/$N$25</f>
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P32">
-        <f>P26/P26</f>
+        <f>P25/$P$25</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B33">
-        <f>B27/B26</f>
+        <f t="shared" ref="B33:B37" si="0">B26/$B$25</f>
         <v>0.88561350466112376</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D33">
-        <f>D27/D26</f>
+        <f t="shared" ref="D33:D37" si="1">D26/$D$25</f>
         <v>0.96176795169070139</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F33">
-        <f>F27/F26</f>
+        <f t="shared" ref="F33:F37" si="2">F26/$F$25</f>
         <v>0.81218799288081145</v>
       </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H33">
-        <f>H27/H26</f>
+        <f t="shared" ref="H33:H37" si="3">H26/$H$25</f>
         <v>0.933085688134076</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J33">
-        <f>J27/J26</f>
+        <f t="shared" ref="J33:J37" si="4">J26/$J$25</f>
         <v>0.80689997556143356</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L33">
-        <f>L27/L26</f>
+        <f t="shared" ref="L33:L37" si="5">L26/$L$25</f>
         <v>0.90375203687387506</v>
       </c>
       <c r="M33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N33">
-        <f>N27/N26</f>
+        <f t="shared" ref="N33:N37" si="6">N26/$N$25</f>
         <v>0.76217836622533108</v>
       </c>
       <c r="O33" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P33">
-        <f>P27/P26</f>
+        <f t="shared" ref="P33:P37" si="7">P26/$P$25</f>
         <v>0.92776644273961739</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B34">
-        <f>B28/B26</f>
+        <f t="shared" si="0"/>
         <v>0.71864395876553944</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D34">
-        <f>D28/D26</f>
+        <f t="shared" si="1"/>
         <v>0.8551192232817092</v>
       </c>
       <c r="E34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F34">
-        <f>F28/F26</f>
+        <f t="shared" si="2"/>
         <v>0.75220665904585504</v>
       </c>
       <c r="G34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H34">
-        <f>H28/H26</f>
+        <f t="shared" si="3"/>
         <v>0.97130645091246803</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J34">
-        <f>J28/J26</f>
+        <f t="shared" si="4"/>
         <v>0.62383974448633661</v>
       </c>
       <c r="K34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L34">
-        <f>L28/L26</f>
+        <f t="shared" si="5"/>
         <v>0.78089590335269088</v>
       </c>
       <c r="M34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N34">
-        <f>N28/N26</f>
+        <f t="shared" si="6"/>
         <v>0.64902959684998152</v>
       </c>
       <c r="O34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P34">
-        <f>P28/P26</f>
+        <f t="shared" si="7"/>
         <v>0.89804741377506969</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B35">
-        <f>B29/B26</f>
+        <f t="shared" si="0"/>
         <v>0.63884823695698401</v>
       </c>
       <c r="C35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D35">
-        <f>D29/D26</f>
+        <f t="shared" si="1"/>
         <v>0.91906332535618174</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F35">
-        <f>F29/F26</f>
+        <f t="shared" si="2"/>
         <v>0.60016965952336154</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H35">
-        <f>H29/H26</f>
+        <f t="shared" si="3"/>
         <v>0.94819995122814882</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J35">
-        <f>J29/J26</f>
+        <f t="shared" si="4"/>
         <v>0.5711861619308618</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L35">
-        <f>L29/L26</f>
+        <f t="shared" si="5"/>
         <v>0.74683839474092084</v>
       </c>
       <c r="M35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N35">
-        <f>N29/N26</f>
+        <f t="shared" si="6"/>
         <v>0.55249485504918938</v>
       </c>
       <c r="O35" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P35">
-        <f>P29/P26</f>
+        <f t="shared" si="7"/>
         <v>0.83709202578903241</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B36">
-        <f>B30/B26</f>
+        <f t="shared" si="0"/>
         <v>0.49019439664492015</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <f>D30/D26</f>
+        <f t="shared" si="1"/>
         <v>0.85434796086649212</v>
       </c>
       <c r="E36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F36">
-        <f>F30/F26</f>
+        <f t="shared" si="2"/>
         <v>0.54097331751291433</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H36">
-        <f>H30/H26</f>
+        <f t="shared" si="3"/>
         <v>0.90555297591806339</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J36">
-        <f>J30/J26</f>
+        <f t="shared" si="4"/>
         <v>0.49491324308995693</v>
       </c>
       <c r="K36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L36">
-        <f>L30/L26</f>
+        <f t="shared" si="5"/>
         <v>0.66372277012054381</v>
       </c>
       <c r="M36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N36">
-        <f>N30/N26</f>
+        <f t="shared" si="6"/>
         <v>0.45007315941615222</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P36">
-        <f>P30/P26</f>
+        <f t="shared" si="7"/>
         <v>0.73877238515080546</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37">
-        <f>B31/B26</f>
+    <row r="37" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
         <v>0.41246075525035336</v>
       </c>
-      <c r="C37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37">
-        <f>D31/D26</f>
+      <c r="C37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
         <v>0.78838394484605756</v>
       </c>
-      <c r="E37" t="s">
-        <v>61</v>
-      </c>
-      <c r="F37">
-        <f>F31/F26</f>
+      <c r="E37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="2"/>
         <v>0.4968853550188832</v>
       </c>
-      <c r="G37" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37">
-        <f>H31/H26</f>
+      <c r="G37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="3"/>
         <v>0.85711684867029914</v>
       </c>
-      <c r="I37" t="s">
-        <v>61</v>
-      </c>
-      <c r="J37">
-        <f>J31/J26</f>
+      <c r="I37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="4"/>
         <v>0.38680102242353714</v>
       </c>
-      <c r="K37" t="s">
-        <v>61</v>
-      </c>
-      <c r="L37">
-        <f>L31/L26</f>
+      <c r="K37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="5"/>
         <v>0.47856168429048368</v>
       </c>
-      <c r="M37" t="s">
-        <v>61</v>
-      </c>
-      <c r="N37">
-        <f>N31/N26</f>
+      <c r="M37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="6"/>
         <v>0.38076204751198511</v>
       </c>
-      <c r="O37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P37">
-        <f>P31/P26</f>
+      <c r="O37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="7"/>
         <v>0.59835241385177296</v>
       </c>
     </row>
@@ -2434,80 +2405,80 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
         <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>4.3425250000000012E-2</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>8.5087875000000007E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>3.9493875000000005E-2</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>5.4837125E-2</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <v>4.7721250000000014E-2</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L4">
         <v>5.8917000000000011E-2</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>3.8782125000000001E-2</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P4">
         <v>5.3976500000000011E-2</v>
@@ -2515,49 +2486,49 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>1.4256125000000003E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>2.2459125000000003E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>9.9858750000000017E-3</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1.2660375E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>1.3614250000000003E-2</v>
       </c>
       <c r="K5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>1.5935750000000002E-2</v>
       </c>
       <c r="M5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>1.0993750000000002E-2</v>
       </c>
       <c r="O5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>1.4121125000000002E-2</v>
@@ -2565,49 +2536,49 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>8.6746250000000018E-3</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1.7428250000000003E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>9.6013750000000023E-3</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>1.329225E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>1.0841000000000002E-2</v>
       </c>
       <c r="K6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1.2311250000000003E-2</v>
       </c>
       <c r="M6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6">
         <v>8.0343750000000016E-3</v>
       </c>
       <c r="O6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6">
         <v>1.2383000000000002E-2</v>
@@ -2615,49 +2586,49 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>8.4581250000000021E-3</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>1.9136625000000004E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>7.9947500000000019E-3</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>1.0549875E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>8.7438750000000016E-3</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1.0761750000000002E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7">
         <v>7.517750000000001E-3</v>
       </c>
       <c r="O7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7">
         <v>9.9752500000000015E-3</v>
@@ -2665,49 +2636,49 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>5.8197500000000011E-3</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>1.4015375000000002E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>6.1905000000000007E-3</v>
       </c>
       <c r="G8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>9.0679999999999997E-3</v>
       </c>
       <c r="I8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8">
         <v>7.472625000000001E-3</v>
       </c>
       <c r="K8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>1.1593250000000001E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8">
         <v>6.2430000000000012E-3</v>
       </c>
       <c r="O8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P8">
         <v>9.770125000000001E-3</v>
@@ -2715,49 +2686,49 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>6.2166250000000008E-3</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1.2048500000000002E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>5.7213750000000008E-3</v>
       </c>
       <c r="G9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>9.2666250000000006E-3</v>
       </c>
       <c r="I9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9">
         <v>7.0495000000000011E-3</v>
       </c>
       <c r="K9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9">
         <v>8.3150000000000012E-3</v>
       </c>
       <c r="M9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9">
         <v>5.9932500000000012E-3</v>
       </c>
       <c r="O9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P9">
         <v>7.7270000000000012E-3</v>
@@ -2765,49 +2736,49 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>-6.1920375000000007E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>-7.4695000000000011E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>-5.7502000000000011E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>-4.4524000000000001E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>-7.1248375000000017E-2</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L10">
         <v>-6.7070000000000018E-2</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>-6.7990000000000009E-2</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P10">
         <v>-5.7999500000000009E-2</v>
@@ -2815,49 +2786,49 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>-2.4093375000000004E-2</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>-2.9823375000000006E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>-2.4290000000000003E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H11">
         <v>-1.7940874999999998E-2</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11">
         <v>-3.1052750000000004E-2</v>
       </c>
       <c r="K11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L11">
         <v>-2.6660625000000004E-2</v>
       </c>
       <c r="M11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>-3.1713625000000002E-2</v>
       </c>
       <c r="O11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P11">
         <v>-2.4104500000000004E-2</v>
@@ -2865,49 +2836,49 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>-2.1349375000000004E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>-2.7084375000000004E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>-1.5740125000000004E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <v>-1.2859499999999999E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J12">
         <v>-2.5922875000000005E-2</v>
       </c>
       <c r="K12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L12">
         <v>-2.2926500000000002E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>-1.9381250000000003E-2</v>
       </c>
       <c r="O12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P12">
         <v>-1.7035625000000002E-2</v>
@@ -2915,49 +2886,49 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>-1.6477625000000003E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <v>-1.7787250000000004E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>-1.7471875000000001E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>-1.3723625E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J13">
         <v>-1.4272750000000002E-2</v>
       </c>
       <c r="K13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L13">
         <v>-1.7482875000000002E-2</v>
       </c>
       <c r="M13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N13">
         <v>-1.6895125000000004E-2</v>
       </c>
       <c r="O13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P13">
         <v>-1.6859375000000003E-2</v>
@@ -2965,49 +2936,49 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>6.5636250000000009E-3</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>1.1451625E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14">
         <v>5.6850000000000008E-3</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>9.5451249999999998E-3</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J14">
         <v>6.2642500000000016E-3</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L14">
         <v>8.836875000000001E-3</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>5.6580000000000007E-3</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P14">
         <v>8.8400000000000006E-3</v>
@@ -3015,49 +2986,49 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>2.3705000000000002E-3</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>3.9052500000000007E-3</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>2.1318750000000005E-3</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>3.1717500000000001E-3</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J15">
         <v>1.9801250000000001E-3</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>2.2772500000000002E-3</v>
       </c>
       <c r="M15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N15">
         <v>1.6830000000000003E-3</v>
       </c>
       <c r="O15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P15">
         <v>2.4268750000000002E-3</v>
@@ -3065,49 +3036,49 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>1.3253750000000002E-3</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D16">
         <v>2.1785000000000003E-3</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>1.0560000000000001E-3</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H16">
         <v>1.796375E-3</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J16">
         <v>1.2603750000000002E-3</v>
       </c>
       <c r="K16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L16">
         <v>2.0492500000000003E-3</v>
       </c>
       <c r="M16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N16">
         <v>1.3106250000000002E-3</v>
       </c>
       <c r="O16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P16">
         <v>2.5066250000000006E-3</v>
@@ -3115,49 +3086,49 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>1.6005000000000004E-3</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17">
         <v>2.5520000000000004E-3</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F17">
         <v>9.0450000000000014E-4</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H17">
         <v>2.2430000000000002E-3</v>
       </c>
       <c r="I17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J17">
         <v>1.2528750000000003E-3</v>
       </c>
       <c r="K17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L17">
         <v>2.0382500000000001E-3</v>
       </c>
       <c r="M17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1.3748750000000002E-3</v>
       </c>
       <c r="O17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P17">
         <v>1.8143750000000002E-3</v>
@@ -3165,49 +3136,49 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>8.4675000000000017E-4</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>1.7825000000000002E-3</v>
       </c>
       <c r="E18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>6.5962500000000016E-4</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H18">
         <v>9.6699999999999998E-4</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J18">
         <v>1.2668750000000002E-3</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L18">
         <v>1.8442500000000004E-3</v>
       </c>
       <c r="M18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>7.000000000000001E-4</v>
       </c>
       <c r="O18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P18">
         <v>1.2023750000000001E-3</v>
@@ -3215,49 +3186,49 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>4.2050000000000008E-4</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <v>1.0333750000000002E-3</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19">
         <v>9.3300000000000013E-4</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H19">
         <v>1.3669999999999999E-3</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J19">
         <v>5.0400000000000011E-4</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L19">
         <v>6.2787500000000007E-4</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>5.8950000000000007E-4</v>
       </c>
       <c r="O19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P19">
         <v>8.8975000000000013E-4</v>
@@ -3265,49 +3236,49 @@
     </row>
     <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1">
         <v>0.62077197571962872</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1">
         <v>0.84405247560355612</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F20" s="1">
         <v>0.57147223950570825</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H20" s="1">
         <v>0.73274194699999995</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J20" s="1">
         <v>0.58678688186950423</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L20" s="1">
         <v>0.65813332290751791</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N20" s="1">
         <v>0.4613459548195995</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P20" s="1">
         <v>0.60220710160672419</v>
@@ -3315,49 +3286,49 @@
     </row>
     <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1">
         <v>-0.885163206338485</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D21" s="1">
         <v>-0.74095750616885936</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F21" s="1">
         <v>-0.83204792429350727</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H21" s="1">
         <v>-0.594936413</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J21" s="1">
         <v>-0.87607956213467031</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L21" s="1">
         <v>-0.7492065442471143</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N21" s="1">
         <v>-0.80879816328230014</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P21" s="1">
         <v>-0.64709106351169865</v>
@@ -3365,49 +3336,49 @@
     </row>
     <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1">
         <v>9.3828232632690592E-2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D22" s="1">
         <v>0.11359752997631652</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F22" s="1">
         <v>8.2261355250401527E-2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H22" s="1">
         <v>0.127543402</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J22" s="1">
         <v>7.7026057044839391E-2</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L22" s="1">
         <v>9.8712458337464087E-2</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N22" s="1">
         <v>6.7306662859997854E-2</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P22" s="1">
         <v>9.8626453701211481E-2</v>
@@ -3415,49 +3386,49 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>6.9953625000000005E-2</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>0.10080875000000002</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>6.9109000000000018E-2</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H23">
         <v>7.4838249999999995E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J23">
         <v>8.132637500000002E-2</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L23">
         <v>8.9521375000000014E-2</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>8.4063000000000013E-2</v>
       </c>
       <c r="O23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P23">
         <v>8.963112500000002E-2</v>
@@ -3465,49 +3436,49 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>6.195187500000001E-2</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>9.6954625000000016E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F24">
         <v>5.6129500000000013E-2</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H24">
         <v>6.9830500000000004E-2</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J24">
         <v>6.5622250000000007E-2</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L24">
         <v>8.0905125000000008E-2</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>6.4071000000000017E-2</v>
       </c>
       <c r="O24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P24">
         <v>8.3156750000000015E-2</v>
@@ -3515,49 +3486,49 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>5.0271750000000011E-2</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D25">
         <v>8.6203500000000016E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F25">
         <v>5.198425000000001E-2</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H25">
         <v>7.2690875000000002E-2</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J25">
         <v>5.0734625000000005E-2</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L25">
         <v>6.9906875000000007E-2</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>5.4559375000000007E-2</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P25">
         <v>8.0493000000000009E-2</v>
@@ -3565,49 +3536,49 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>4.4689750000000007E-2</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>9.2649625000000013E-2</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F26">
         <v>4.1477125000000004E-2</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H26">
         <v>7.0961625E-2</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J26">
         <v>4.6452500000000008E-2</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L26">
         <v>6.6858000000000015E-2</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>4.644437500000001E-2</v>
       </c>
       <c r="O26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P26">
         <v>7.5029500000000013E-2</v>
@@ -3615,49 +3586,49 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>3.4290875000000005E-2</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <v>8.6125750000000015E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F27">
         <v>3.7386125000000006E-2</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H27">
         <v>6.7769999999999997E-2</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J27">
         <v>4.0249500000000007E-2</v>
       </c>
       <c r="K27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L27">
         <v>5.9417375000000008E-2</v>
       </c>
       <c r="M27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>3.7834500000000007E-2</v>
       </c>
       <c r="O27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P27">
         <v>6.6217000000000012E-2</v>
@@ -3665,49 +3636,49 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>2.8853125000000004E-2</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>7.9476000000000019E-2</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F28">
         <v>3.4339250000000009E-2</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H28">
         <v>6.4145124999999997E-2</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J28">
         <v>3.1457125000000002E-2</v>
       </c>
       <c r="K28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L28">
         <v>4.2841500000000005E-2</v>
       </c>
       <c r="M28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>3.2008000000000009E-2</v>
       </c>
       <c r="O28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P28">
         <v>5.3631000000000012E-2</v>
@@ -3722,9 +3693,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BC534D-2E61-40D7-9AB1-ADB4BE32B18D}">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3740,33 +3711,33 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
         <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -3774,846 +3745,846 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>0.18072550000000001</v>
+        <v>0.22461287500000005</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.21007625000000002</v>
+        <v>0.2699378750000001</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.21925900000000004</v>
+        <v>0.26672162500000007</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.19950175000000003</v>
+        <v>0.24487525000000004</v>
       </c>
       <c r="I4" t="s">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.18089562500000003</v>
+        <v>0.21847725000000001</v>
       </c>
       <c r="K4" t="s">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.20051750000000004</v>
+        <v>0.23788000000000004</v>
       </c>
       <c r="M4" t="s">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.26571787499999999</v>
+        <v>0.32891975000000007</v>
       </c>
       <c r="O4" t="s">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.25534812500000004</v>
+        <v>0.31878875000000007</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B5">
-        <v>4.2666375000000006E-2</v>
+        <v>5.491587500000001E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>4.9863625000000009E-2</v>
+        <v>6.295400000000001E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="F5">
-        <v>5.6004375000000009E-2</v>
+        <v>6.7305875000000015E-2</v>
       </c>
       <c r="G5" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="H5">
-        <v>5.147100000000001E-2</v>
+        <v>6.2326250000000014E-2</v>
       </c>
       <c r="I5" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="J5">
-        <v>5.0734875000000006E-2</v>
+        <v>6.6091250000000004E-2</v>
       </c>
       <c r="K5" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="L5">
-        <v>5.306700000000001E-2</v>
+        <v>6.5450500000000009E-2</v>
       </c>
       <c r="M5" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="N5">
-        <v>6.6477000000000008E-2</v>
+        <v>8.3010250000000008E-2</v>
       </c>
       <c r="O5" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="P5">
-        <v>6.2900375000000008E-2</v>
+        <v>7.6410500000000006E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>3.9956625000000009E-2</v>
+        <v>5.2157000000000009E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>4.3946250000000006E-2</v>
+        <v>5.9258750000000013E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F6">
-        <v>5.0899875000000011E-2</v>
+        <v>6.1111500000000013E-2</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="H6">
-        <v>4.9814500000000012E-2</v>
+        <v>5.9292000000000011E-2</v>
       </c>
       <c r="I6" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="J6">
-        <v>4.635750000000001E-2</v>
+        <v>5.525900000000001E-2</v>
       </c>
       <c r="K6" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="L6">
-        <v>5.1077250000000012E-2</v>
+        <v>5.9306000000000011E-2</v>
       </c>
       <c r="M6" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="N6">
-        <v>6.1171750000000011E-2</v>
+        <v>7.3526125000000012E-2</v>
       </c>
       <c r="O6" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="P6">
-        <v>5.7658375000000012E-2</v>
+        <v>7.2397125000000007E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="B7">
-        <v>3.6181375000000009E-2</v>
+        <v>4.4922000000000011E-2</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>4.4838875000000007E-2</v>
+        <v>5.6548500000000008E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="F7">
-        <v>4.3594000000000008E-2</v>
+        <v>5.415262500000001E-2</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="H7">
-        <v>3.5745250000000006E-2</v>
+        <v>4.554212500000001E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="J7">
-        <v>3.5656375000000004E-2</v>
+        <v>4.4098250000000005E-2</v>
       </c>
       <c r="K7" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="L7">
-        <v>3.8028500000000007E-2</v>
+        <v>4.7133750000000009E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="N7">
-        <v>5.2560125000000006E-2</v>
+        <v>6.5297625000000012E-2</v>
       </c>
       <c r="O7" t="s">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="P7">
-        <v>5.2257125000000008E-2</v>
+        <v>6.236037500000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>3.2133375000000006E-2</v>
+        <v>4.1279750000000004E-2</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>3.8761000000000004E-2</v>
+        <v>5.0751625000000009E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="F8">
-        <v>3.7934125000000006E-2</v>
+        <v>4.5729750000000007E-2</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="H8">
-        <v>3.5150875000000005E-2</v>
+        <v>4.3586500000000007E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="J8">
-        <v>3.2956875000000004E-2</v>
+        <v>3.9853625000000004E-2</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="L8">
-        <v>3.5287125000000003E-2</v>
+        <v>4.2342625000000009E-2</v>
       </c>
       <c r="M8" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="N8">
-        <v>4.7291250000000007E-2</v>
+        <v>6.0988000000000007E-2</v>
       </c>
       <c r="O8" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="P8">
-        <v>4.5049125000000009E-2</v>
+        <v>5.795125000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B9">
-        <v>3.5983125000000005E-2</v>
+        <v>4.280912500000001E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>3.9416250000000007E-2</v>
+        <v>4.9050625000000007E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="F9">
-        <v>4.2215000000000009E-2</v>
+        <v>5.3744000000000007E-2</v>
       </c>
       <c r="G9" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="H9">
-        <v>3.8952250000000008E-2</v>
+        <v>4.9476500000000007E-2</v>
       </c>
       <c r="I9" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="J9">
-        <v>3.3125000000000009E-2</v>
+        <v>3.9800250000000009E-2</v>
       </c>
       <c r="K9" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="L9">
-        <v>3.9859250000000006E-2</v>
+        <v>4.7150125000000008E-2</v>
       </c>
       <c r="M9" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="N9">
-        <v>5.3224625000000012E-2</v>
+        <v>6.6259500000000013E-2</v>
       </c>
       <c r="O9" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="P9">
-        <v>5.3262875000000008E-2</v>
+        <v>6.4524125000000015E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B10">
-        <v>3.6471000000000003E-2</v>
+        <v>4.3445000000000004E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>4.311387500000001E-2</v>
+        <v>5.4328375000000012E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="F10">
-        <v>4.461600000000001E-2</v>
+        <v>5.1983750000000009E-2</v>
       </c>
       <c r="G10" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="H10">
-        <v>3.983887500000001E-2</v>
+        <v>4.6978125000000009E-2</v>
       </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="J10">
-        <v>3.2799875000000006E-2</v>
+        <v>3.9466125000000005E-2</v>
       </c>
       <c r="K10" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="L10">
-        <v>3.6265375000000009E-2</v>
+        <v>4.1947500000000006E-2</v>
       </c>
       <c r="M10" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="N10">
-        <v>5.1470125000000005E-2</v>
+        <v>6.2848500000000015E-2</v>
       </c>
       <c r="O10" t="s">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="P10">
-        <v>4.7120625000000006E-2</v>
+        <v>6.155587500000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>-0.25804237500000005</v>
+        <v>-0.28624000000000005</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>-0.29357150000000004</v>
+        <v>-0.33345325000000009</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11">
-        <v>-0.31486312500000002</v>
+        <v>-0.34809125000000007</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>-0.27116975000000004</v>
+        <v>-0.30330725000000008</v>
       </c>
       <c r="I11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11">
-        <v>-0.28082525000000003</v>
+        <v>-0.30648612500000005</v>
       </c>
       <c r="K11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L11">
-        <v>-0.23205700000000004</v>
+        <v>-0.25737450000000006</v>
       </c>
       <c r="M11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N11">
-        <v>-0.31307300000000005</v>
+        <v>-0.35855762500000005</v>
       </c>
       <c r="O11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P11">
-        <v>-0.28955875000000009</v>
+        <v>-0.33212025000000006</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B12">
-        <v>-5.700150000000001E-2</v>
+        <v>-6.740175000000001E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="D12">
-        <v>-6.7944500000000005E-2</v>
+        <v>-8.1291500000000017E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="F12">
-        <v>-5.2908500000000011E-2</v>
+        <v>-6.134137500000001E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="H12">
-        <v>-4.9578750000000012E-2</v>
+        <v>-5.7137750000000008E-2</v>
       </c>
       <c r="I12" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="J12">
-        <v>-6.0853250000000011E-2</v>
+        <v>-6.8222750000000013E-2</v>
       </c>
       <c r="K12" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="L12">
-        <v>-5.5135500000000011E-2</v>
+        <v>-6.1675375000000011E-2</v>
       </c>
       <c r="M12" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="N12">
-        <v>-5.875937500000001E-2</v>
+        <v>-6.8881750000000005E-2</v>
       </c>
       <c r="O12" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="P12">
-        <v>-5.165537500000001E-2</v>
+        <v>-6.4150500000000013E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B13">
-        <v>-5.342462500000001E-2</v>
+        <v>-6.0844000000000009E-2</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>-6.1582250000000012E-2</v>
+        <v>-7.1296625000000016E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F13">
-        <v>-5.9841250000000012E-2</v>
+        <v>-6.8609250000000011E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="H13">
-        <v>-5.7051750000000012E-2</v>
+        <v>-6.5413000000000013E-2</v>
       </c>
       <c r="I13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="J13">
-        <v>-6.5437375000000006E-2</v>
+        <v>-7.2759625000000008E-2</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="L13">
-        <v>-5.3495875000000012E-2</v>
+        <v>-6.1184000000000009E-2</v>
       </c>
       <c r="M13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="N13">
-        <v>-6.3234250000000006E-2</v>
+        <v>-7.3829375000000017E-2</v>
       </c>
       <c r="O13" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="P13">
-        <v>-5.219325000000001E-2</v>
+        <v>-5.9923750000000012E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="B14">
-        <v>-6.0159125000000008E-2</v>
+        <v>-6.8013875000000015E-2</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="D14">
-        <v>-6.0262750000000011E-2</v>
+        <v>-7.0631250000000007E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="F14">
-        <v>-6.4127375000000014E-2</v>
+        <v>-7.068012500000001E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="H14">
-        <v>-5.1723500000000006E-2</v>
+        <v>-5.8803250000000008E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="J14">
-        <v>-5.5316125000000008E-2</v>
+        <v>-6.1057750000000008E-2</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="L14">
-        <v>-4.9462500000000006E-2</v>
+        <v>-5.5177125000000007E-2</v>
       </c>
       <c r="M14" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="N14">
-        <v>-6.9352875000000008E-2</v>
+        <v>-8.1131250000000016E-2</v>
       </c>
       <c r="O14" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
       <c r="P14">
-        <v>-6.1188875000000011E-2</v>
+        <v>-7.1802375000000015E-2</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B15">
-        <v>-4.6849875000000006E-2</v>
+        <v>-5.3176500000000008E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D15">
-        <v>-5.1326875000000008E-2</v>
+        <v>-6.039400000000001E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F15">
-        <v>-6.0731000000000007E-2</v>
+        <v>-7.1733000000000005E-2</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="H15">
-        <v>-5.0077375000000007E-2</v>
+        <v>-6.0094375000000012E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="J15">
-        <v>-5.1085125000000009E-2</v>
+        <v>-5.7384875000000009E-2</v>
       </c>
       <c r="K15" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="L15">
-        <v>-3.8192750000000004E-2</v>
+        <v>-4.4982250000000008E-2</v>
       </c>
       <c r="M15" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="N15">
-        <v>-6.2708375000000011E-2</v>
+        <v>-7.5145125000000007E-2</v>
       </c>
       <c r="O15" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="P15">
-        <v>-6.5831250000000008E-2</v>
+        <v>-7.6334750000000007E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="B16">
-        <v>-4.8667375000000006E-2</v>
+        <v>-5.5264250000000008E-2</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D16">
-        <v>-5.5479000000000007E-2</v>
+        <v>-6.6210750000000013E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F16">
-        <v>-6.0937500000000012E-2</v>
+        <v>-6.7842875000000011E-2</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="H16">
-        <v>-5.1396125000000008E-2</v>
+        <v>-5.8075625000000013E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="J16">
-        <v>-5.843000000000001E-2</v>
+        <v>-6.4727250000000014E-2</v>
       </c>
       <c r="K16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="L16">
-        <v>-4.1873000000000007E-2</v>
+        <v>-4.6998250000000005E-2</v>
       </c>
       <c r="M16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="N16">
-        <v>-6.4113625000000007E-2</v>
+        <v>-7.4788000000000007E-2</v>
       </c>
       <c r="O16" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="P16">
-        <v>-5.9872875000000013E-2</v>
+        <v>-7.358687500000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>-4.8941375000000009E-2</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="D17">
         <v>-6.492062500000001E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="F17">
         <v>-6.922600000000001E-2</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H17">
         <v>-6.092100000000001E-2</v>
       </c>
       <c r="I17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="J17">
         <v>-5.0556625000000008E-2</v>
       </c>
       <c r="K17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="L17">
         <v>-4.903287500000001E-2</v>
       </c>
       <c r="M17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="N17">
         <v>-5.3663875000000007E-2</v>
       </c>
       <c r="O17" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="P17">
         <v>-5.047250000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>0.52570083858105521</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18">
-        <v>0.54964501894932927</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18">
-        <v>0.53634751935694758</v>
-      </c>
-      <c r="G18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18">
-        <v>0.52451287444336725</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18">
-        <v>0.6000573866437563</v>
-      </c>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18">
-        <v>0.62532062426811907</v>
-      </c>
-      <c r="M18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18">
-        <v>0.56043371107863038</v>
-      </c>
-      <c r="O18" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18">
-        <v>0.54592302503653234</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>-0.7506029471599035</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>-0.76810259456022767</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19">
-        <v>-0.77021265275645001</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19">
-        <v>-0.71293622754982988</v>
-      </c>
-      <c r="I19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19">
-        <v>-0.93153864621424365</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19">
-        <v>-0.72367762467508778</v>
-      </c>
-      <c r="M19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19">
-        <v>-0.66031185605605225</v>
-      </c>
-      <c r="O19" t="s">
-        <v>20</v>
-      </c>
-      <c r="P19">
-        <v>-0.6190638318797016</v>
+    <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.65336201445618769</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.70626740728433945</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.65244975999892374</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0.64380498545771236</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.72472116269320819</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.74183684766117752</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.69373472198494501</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.6815562822230038</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-0.83262521357219244</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-0.87244949352897083</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="1">
+        <v>-0.8514947092131181</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1">
+        <v>-0.79742938363705085</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-1.0166595417112581</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-0.80263110706394714</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="1">
+        <v>-0.75624487217613767</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="1">
+        <v>-0.71005844102395266</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>0.34378012500000005</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D20">
         <v>0.38220350000000008</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F20">
         <v>0.40880025000000009</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H20">
         <v>0.38035625000000006</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J20">
         <v>0.30146387500000005</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L20">
         <v>0.32066350000000005</v>
       </c>
       <c r="M20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>0.47412900000000008</v>
       </c>
       <c r="O20" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P20">
         <v>0.46773650000000005</v>
@@ -4621,49 +4592,49 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>0.33459137500000008</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>0.36965925000000005</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F21">
         <v>0.40076937500000009</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H21">
         <v>0.37375862500000007</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J21">
         <v>0.28347162500000006</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L21">
         <v>0.31830825000000007</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N21">
         <v>0.47327187500000006</v>
       </c>
       <c r="O21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P21">
         <v>0.4797256250000001</v>
@@ -4671,49 +4642,49 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>0.31135687500000003</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>0.35543587500000007</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F22">
         <v>0.38403450000000006</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H22">
         <v>0.36025875000000007</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J22">
         <v>0.26630712500000003</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L22">
         <v>0.31009550000000002</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>0.45708387500000008</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P22">
         <v>0.46993000000000007</v>
@@ -4721,49 +4692,49 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>0.29929525000000007</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>0.34552812500000007</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F23">
         <v>0.35780825000000005</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H23">
         <v>0.34356612500000006</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J23">
         <v>0.24862400000000004</v>
       </c>
       <c r="K23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L23">
         <v>0.30732487500000005</v>
       </c>
       <c r="M23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>0.44261312500000005</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P23">
         <v>0.4512226250000001</v>
@@ -4771,49 +4742,49 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>0.28663475000000005</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D24">
         <v>0.32808187500000008</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F24">
         <v>0.34352162500000005</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H24">
         <v>0.33476325000000007</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J24">
         <v>0.22355200000000003</v>
       </c>
       <c r="K24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L24">
         <v>0.30733737500000002</v>
       </c>
       <c r="M24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>0.43381150000000007</v>
       </c>
       <c r="O24" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P24">
         <v>0.44195562500000007</v>
@@ -4821,49 +4792,49 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>0.28095362500000004</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>0.31726450000000006</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F25">
         <v>0.32606112500000006</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H25">
         <v>0.32059612500000007</v>
       </c>
       <c r="I25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J25">
         <v>0.21226987500000002</v>
       </c>
       <c r="K25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L25">
         <v>0.29992525000000003</v>
       </c>
       <c r="M25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N25">
         <v>0.44258275000000008</v>
       </c>
       <c r="O25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P25">
         <v>0.45258487500000005</v>
@@ -4871,699 +4842,649 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B26">
-        <v>1.3664455000000002</v>
+        <v>0.2515871470907548</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D26">
-        <v>1.4107388750000003</v>
+        <v>0.27092434097699336</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F26">
-        <v>1.3732807500000002</v>
+        <v>0.29768148282862045</v>
       </c>
       <c r="G26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H26">
-        <v>1.4308933750000001</v>
+        <v>0.26581732548730264</v>
       </c>
       <c r="I26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J26">
-        <v>1.2395960000000001</v>
+        <v>0.24319526281143211</v>
       </c>
       <c r="K26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L26">
-        <v>1.2720721250000002</v>
+        <v>0.25207965310929203</v>
       </c>
       <c r="M26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N26">
-        <v>1.4879670000000003</v>
+        <v>0.31864214730568619</v>
       </c>
       <c r="O26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="P26">
-        <v>1.4654615000000002</v>
+        <v>0.31917351632915636</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B27">
-        <v>0.2515871470907548</v>
+        <v>0.24486258324975277</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D27">
-        <v>0.27092434097699336</v>
+        <v>0.26203236938515639</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F27">
-        <v>0.29768148282862045</v>
+        <v>0.29183353440292531</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H27">
-        <v>0.26581732548730264</v>
+        <v>0.26120648227894688</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J27">
-        <v>0.24319526281143211</v>
+        <v>0.22868065482624986</v>
       </c>
       <c r="K27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="L27">
-        <v>0.25207965310929203</v>
+        <v>0.25022814645828356</v>
       </c>
       <c r="M27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="N27">
-        <v>0.31864214730568619</v>
+        <v>0.31806610966506649</v>
       </c>
       <c r="O27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P27">
-        <v>0.31917351632915636</v>
+        <v>0.32735464220656774</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B28">
-        <v>0.24486258324975277</v>
+        <v>0.22785897791020571</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D28">
-        <v>0.26203236938515639</v>
+        <v>0.25195015271695831</v>
       </c>
       <c r="E28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F28">
-        <v>0.29183353440292531</v>
+        <v>0.27964747922083666</v>
       </c>
       <c r="G28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H28">
-        <v>0.26120648227894688</v>
+        <v>0.25177190438805408</v>
       </c>
       <c r="I28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J28">
-        <v>0.22868065482624986</v>
+        <v>0.21483380472347444</v>
       </c>
       <c r="K28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="L28">
-        <v>0.25022814645828356</v>
+        <v>0.24377194807251984</v>
       </c>
       <c r="M28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N28">
-        <v>0.31806610966506649</v>
+        <v>0.30718683613279057</v>
       </c>
       <c r="O28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P28">
-        <v>0.32735464220656774</v>
+        <v>0.32067031443678323</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B29">
-        <v>0.22785897791020571</v>
+        <v>0.21903197017370984</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D29">
-        <v>0.25195015271695831</v>
+        <v>0.244927059942259</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F29">
-        <v>0.27964747922083666</v>
+        <v>0.26054996401864661</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H29">
-        <v>0.25177190438805408</v>
+        <v>0.24010602816579538</v>
       </c>
       <c r="I29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J29">
-        <v>0.21483380472347444</v>
+        <v>0.2005685723413112</v>
       </c>
       <c r="K29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L29">
-        <v>0.24377194807251984</v>
+        <v>0.24159390726370961</v>
       </c>
       <c r="M29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="N29">
-        <v>0.30718683613279057</v>
+        <v>0.29746165405549985</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P29">
-        <v>0.32067031443678323</v>
+        <v>0.30790479654361447</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B30">
-        <v>0.21903197017370984</v>
+        <v>0.20976669029244124</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D30">
-        <v>0.244927059942259</v>
+        <v>0.2325603134740297</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F30">
-        <v>0.26054996401864661</v>
+        <v>0.25014668340759894</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H30">
-        <v>0.24010602816579538</v>
+        <v>0.23395401491742879</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J30">
-        <v>0.2005685723413112</v>
+        <v>0.18034262775936677</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="L30">
-        <v>0.24159390726370961</v>
+        <v>0.24160373375055283</v>
       </c>
       <c r="M30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N30">
-        <v>0.29746165405549985</v>
+        <v>0.29154645230707399</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="P30">
-        <v>0.30790479654361447</v>
+        <v>0.3015811913175474</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B31">
-        <v>0.20976669029244124</v>
+        <v>0.20560909674041153</v>
       </c>
       <c r="C31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D31">
-        <v>0.2325603134740297</v>
+        <v>0.22489243446984475</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F31">
-        <v>0.25014668340759894</v>
+        <v>0.23743224027570475</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H31">
-        <v>0.23395401491742879</v>
+        <v>0.22405311996080773</v>
       </c>
       <c r="I31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J31">
-        <v>0.18034262775936677</v>
+        <v>0.17124117454396431</v>
       </c>
       <c r="K31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="L31">
-        <v>0.24160373375055283</v>
+        <v>0.23577692184710045</v>
       </c>
       <c r="M31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N31">
-        <v>0.29154645230707399</v>
+        <v>0.29744124029632379</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P31">
-        <v>0.3015811913175474</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32">
-        <v>0.20560909674041153</v>
-      </c>
-      <c r="C32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32">
-        <v>0.22489243446984475</v>
-      </c>
-      <c r="E32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32">
-        <v>0.23743224027570475</v>
-      </c>
-      <c r="G32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32">
-        <v>0.22405311996080773</v>
-      </c>
-      <c r="I32" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32">
-        <v>0.17124117454396431</v>
-      </c>
-      <c r="K32" t="s">
-        <v>55</v>
-      </c>
-      <c r="L32">
-        <v>0.23577692184710045</v>
-      </c>
-      <c r="M32" t="s">
-        <v>55</v>
-      </c>
-      <c r="N32">
-        <v>0.29744124029632379</v>
-      </c>
-      <c r="O32" t="s">
-        <v>55</v>
-      </c>
-      <c r="P32">
         <v>0.30883436719422513</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B33">
-        <f>B27/B27</f>
+        <f>B26/$B$26</f>
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D33">
-        <f>D27/D27</f>
+        <f>D26/$D$26</f>
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F33">
-        <f>F27/F27</f>
+        <f>F26/$F$26</f>
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H33">
-        <f>H27/H27</f>
+        <f>H26/$H$26</f>
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J33">
-        <f>J27/J27</f>
+        <f>J26/$J$26</f>
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L33">
-        <f>L27/L27</f>
+        <f>L26/$L$26</f>
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N33">
-        <f>N27/N27</f>
+        <f>N26/$N$26</f>
         <v>1</v>
       </c>
       <c r="O33" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="P33">
-        <f>P27/P27</f>
+        <f>P26/$P$26</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B34">
-        <f>B28/B27</f>
+        <f t="shared" ref="B34:C34" si="0">B27/$B$26</f>
         <v>0.97327143330348154</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D34">
-        <f>D28/D27</f>
+        <f t="shared" ref="D34:D38" si="1">D27/$D$26</f>
         <v>0.96717913362907448</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F34">
-        <f>F28/F27</f>
+        <f t="shared" ref="F34:F38" si="2">F27/$F$26</f>
         <v>0.98035501445999618</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H34">
-        <f>H28/H27</f>
+        <f t="shared" ref="H34:H38" si="3">H27/$H$26</f>
         <v>0.98265409073730225</v>
       </c>
       <c r="I34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J34">
-        <f>J28/J27</f>
+        <f t="shared" ref="J34:J38" si="4">J27/$J$26</f>
         <v>0.94031706120675329</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L34">
-        <f>L28/L27</f>
+        <f t="shared" ref="L34:L38" si="5">L27/$L$26</f>
         <v>0.99265507299708267</v>
       </c>
       <c r="M34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="N34">
-        <f>N28/N27</f>
+        <f t="shared" ref="N34:N38" si="6">N27/$N$26</f>
         <v>0.99819221140238212</v>
       </c>
       <c r="O34" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="P34">
-        <f>P28/P27</f>
+        <f t="shared" ref="P34:P38" si="7">P27/$P$26</f>
         <v>1.0256322202778703</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B35">
-        <f>B29/B27</f>
+        <f t="shared" ref="B35:C35" si="8">B28/$B$26</f>
         <v>0.90568608351049962</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D35">
-        <f>D29/D27</f>
+        <f t="shared" si="1"/>
         <v>0.92996499247128805</v>
       </c>
       <c r="E35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F35">
-        <f>F29/F27</f>
+        <f t="shared" si="2"/>
         <v>0.93941845681356595</v>
       </c>
       <c r="G35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H35">
-        <f>H29/H27</f>
+        <f t="shared" si="3"/>
         <v>0.94716137831309466</v>
       </c>
       <c r="I35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J35">
-        <f>J29/J27</f>
+        <f t="shared" si="4"/>
         <v>0.88337989087415536</v>
       </c>
       <c r="K35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="L35">
-        <f>L29/L27</f>
+        <f t="shared" si="5"/>
         <v>0.96704333358801353</v>
       </c>
       <c r="M35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="N35">
-        <f>N29/N27</f>
+        <f t="shared" si="6"/>
         <v>0.96404960464346212</v>
       </c>
       <c r="O35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P35">
-        <f>P29/P27</f>
+        <f t="shared" si="7"/>
         <v>1.0046896062205966</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B36">
-        <f>B30/B27</f>
+        <f t="shared" ref="B36:C36" si="9">B29/$B$26</f>
         <v>0.87060079462127149</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D36">
-        <f>D30/D27</f>
+        <f t="shared" si="1"/>
         <v>0.90404228375721307</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F36">
-        <f>F30/F27</f>
+        <f t="shared" si="2"/>
         <v>0.87526426414856651</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H36">
-        <f>H30/H27</f>
+        <f t="shared" si="3"/>
         <v>0.90327456167737485</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J36">
-        <f>J30/J27</f>
+        <f t="shared" si="4"/>
         <v>0.82472236515900954</v>
       </c>
       <c r="K36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="L36">
-        <f>L30/L27</f>
+        <f t="shared" si="5"/>
         <v>0.95840304556022138</v>
       </c>
       <c r="M36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N36">
-        <f>N30/N27</f>
+        <f t="shared" si="6"/>
         <v>0.93352890247169018</v>
       </c>
       <c r="O36" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P36">
-        <f>P30/P27</f>
+        <f t="shared" si="7"/>
         <v>0.96469406385860434</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B37">
-        <f>B31/B27</f>
+        <f t="shared" ref="B37:C37" si="10">B30/$B$26</f>
         <v>0.83377347657896173</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D37">
-        <f>D31/D27</f>
+        <f t="shared" si="1"/>
         <v>0.85839578915420711</v>
       </c>
       <c r="E37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F37">
-        <f>F31/F27</f>
+        <f t="shared" si="2"/>
         <v>0.84031657270268312</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H37">
-        <f>H31/H27</f>
+        <f t="shared" si="3"/>
         <v>0.88013079842910436</v>
       </c>
       <c r="I37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J37">
-        <f>J31/J27</f>
+        <f t="shared" si="4"/>
         <v>0.74155485462395787</v>
       </c>
       <c r="K37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L37">
-        <f>L31/L27</f>
+        <f t="shared" si="5"/>
         <v>0.95844202723415661</v>
       </c>
       <c r="M37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="N37">
-        <f>N31/N27</f>
+        <f t="shared" si="6"/>
         <v>0.91496512552490994</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P37">
-        <f>P31/P27</f>
+        <f t="shared" si="7"/>
         <v>0.94488162672786924</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38">
-        <f>B32/B27</f>
+    <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" ref="B38:C38" si="11">B31/$B$26</f>
         <v>0.81724801571934969</v>
       </c>
-      <c r="C38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38">
-        <f>D32/D27</f>
+      <c r="C38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
         <v>0.8300931310152837</v>
       </c>
-      <c r="E38" t="s">
-        <v>61</v>
-      </c>
-      <c r="F38">
-        <f>F32/F27</f>
+      <c r="E38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="2"/>
         <v>0.79760500391083422</v>
       </c>
-      <c r="G38" t="s">
-        <v>61</v>
-      </c>
-      <c r="H38">
-        <f>H32/H27</f>
+      <c r="G38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="3"/>
         <v>0.84288380958640763</v>
       </c>
-      <c r="I38" t="s">
-        <v>61</v>
-      </c>
-      <c r="J38">
-        <f>J32/J27</f>
+      <c r="I38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="4"/>
         <v>0.70413038709861997</v>
       </c>
-      <c r="K38" t="s">
-        <v>61</v>
-      </c>
-      <c r="L38">
-        <f>L32/L27</f>
+      <c r="K38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="5"/>
         <v>0.93532706404065324</v>
       </c>
-      <c r="M38" t="s">
-        <v>61</v>
-      </c>
-      <c r="N38">
-        <f>N32/N27</f>
+      <c r="M38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="6"/>
         <v>0.93346483762857801</v>
       </c>
-      <c r="O38" t="s">
-        <v>61</v>
-      </c>
-      <c r="P38">
-        <f>P32/P27</f>
+      <c r="O38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="7"/>
         <v>0.96760649425477807</v>
       </c>
     </row>
@@ -5577,8 +5498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4A2C48-2F30-4A59-B4FA-DECD8315B3E4}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5588,80 +5509,80 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s">
         <v>41</v>
       </c>
-      <c r="D3" t="s">
+      <c r="L3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
         <v>43</v>
       </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
         <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="P3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>0.156805625</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>0.17716812500000004</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>0.19359262500000002</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>0.17720487500000004</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J4">
         <v>0.15882062500000005</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L4">
         <v>0.17958675000000002</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>0.23075125000000002</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P4">
         <v>0.22433912500000006</v>
@@ -5669,49 +5590,49 @@
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>3.4663875000000004E-2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
         <v>3.7510500000000009E-2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>4.5932625000000005E-2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>4.623612500000001E-2</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
         <v>3.9919375000000007E-2</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
         <v>4.625662500000001E-2</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1">
         <v>5.4037875000000006E-2</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" s="1">
         <v>5.1314375000000009E-2</v>
@@ -5719,49 +5640,49 @@
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>3.1226375000000004E-2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>3.8534750000000006E-2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>3.9939375000000006E-2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H6" s="1">
         <v>3.3248000000000007E-2</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1">
         <v>3.1872750000000005E-2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1">
         <v>3.5092500000000006E-2</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6" s="1">
         <v>4.7288125000000007E-2</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" s="1">
         <v>4.7067000000000005E-2</v>
@@ -5769,49 +5690,49 @@
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
         <v>2.8054625000000003E-2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>3.3148875000000008E-2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>3.3592750000000005E-2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
         <v>3.0706375000000004E-2</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1">
         <v>2.9246125000000005E-2</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7" s="1">
         <v>3.0999375000000006E-2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7" s="1">
         <v>4.1338250000000007E-2</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7" s="1">
         <v>4.085912500000001E-2</v>
@@ -5819,49 +5740,49 @@
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1">
         <v>3.0504875000000004E-2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
         <v>3.1401750000000006E-2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
         <v>3.5793125000000009E-2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1">
         <v>3.3295625000000002E-2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1">
         <v>2.9154000000000006E-2</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8" s="1">
         <v>3.4539125000000004E-2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N8" s="1">
         <v>4.5102625000000007E-2</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P8" s="1">
         <v>4.6105250000000007E-2</v>
@@ -5869,49 +5790,49 @@
     </row>
     <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>3.2355875000000006E-2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>3.6572250000000008E-2</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1">
         <v>3.8334750000000008E-2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H9" s="1">
         <v>3.3718750000000006E-2</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1">
         <v>2.8628375000000005E-2</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L9" s="1">
         <v>3.2699125000000002E-2</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N9" s="1">
         <v>4.2984375000000005E-2</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P9" s="1">
         <v>3.8993375000000004E-2</v>
@@ -5919,49 +5840,49 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>-0.14564462500000003</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>-0.15157050000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>-0.16650562500000002</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H10">
         <v>-0.14144900000000002</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J10">
         <v>-0.15890037500000004</v>
       </c>
       <c r="K10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L10">
         <v>-0.12673112500000003</v>
       </c>
       <c r="M10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>-0.17109112500000001</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="P10">
         <v>-0.15772000000000003</v>
@@ -5969,49 +5890,49 @@
     </row>
     <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>-4.8447250000000011E-2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1">
         <v>-5.4727000000000012E-2</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1">
         <v>-5.4605625000000012E-2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H11" s="1">
         <v>-5.1663125000000011E-2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1">
         <v>-6.0843625000000012E-2</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L11" s="1">
         <v>-4.8179625000000011E-2</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N11" s="1">
         <v>-5.5905375000000007E-2</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P11" s="1">
         <v>-4.6293500000000008E-2</v>
@@ -6019,49 +5940,49 @@
     </row>
     <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="1">
         <v>-5.4547250000000012E-2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1">
         <v>-5.2092500000000007E-2</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1">
         <v>-5.7567125000000011E-2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
         <v>-4.5948125000000006E-2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1">
         <v>-5.1218250000000007E-2</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L12" s="1">
         <v>-4.4009625000000011E-2</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N12" s="1">
         <v>-6.1103875000000009E-2</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P12" s="1">
         <v>-5.3869500000000008E-2</v>
@@ -6069,49 +5990,49 @@
     </row>
     <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1">
         <v>-4.2650125000000004E-2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1">
         <v>-4.4751000000000006E-2</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1">
         <v>-5.433287500000001E-2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1">
         <v>-4.3837750000000009E-2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J13" s="1">
         <v>-4.6838500000000005E-2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L13" s="1">
         <v>-3.4541875000000007E-2</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N13" s="1">
         <v>-5.4081875000000008E-2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P13" s="1">
         <v>-5.7557000000000011E-2</v>
@@ -6119,49 +6040,49 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>2.6350875000000006E-2</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>3.6515750000000007E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14">
         <v>2.8614125000000008E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>2.5088750000000003E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="J14">
         <v>2.4380875000000003E-2</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L14">
         <v>2.3709625000000005E-2</v>
       </c>
       <c r="M14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N14">
         <v>3.888837500000001E-2</v>
       </c>
       <c r="O14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="P14">
         <v>3.5164750000000009E-2</v>
@@ -6169,49 +6090,49 @@
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15" s="1">
         <v>6.296625000000001E-3</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1">
         <v>7.6515000000000012E-3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1">
         <v>6.0622500000000008E-3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1">
         <v>4.7782500000000004E-3</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1">
         <v>7.3803750000000015E-3</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L15" s="1">
         <v>5.8346250000000013E-3</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N15" s="1">
         <v>8.5143750000000011E-3</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="P15" s="1">
         <v>7.7400000000000012E-3</v>
@@ -6219,49 +6140,49 @@
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" s="1">
         <v>5.7408750000000012E-3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
         <v>7.7456250000000016E-3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1">
         <v>4.9025000000000006E-3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H16" s="1">
         <v>3.4483750000000005E-3</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J16" s="1">
         <v>4.5071250000000007E-3</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L16" s="1">
         <v>3.9330000000000007E-3</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N16" s="1">
         <v>6.7767500000000015E-3</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P16" s="1">
         <v>6.7132500000000013E-3</v>
@@ -6269,49 +6190,49 @@
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>4.8162500000000011E-3</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1">
         <v>6.717250000000001E-3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1">
         <v>5.0778750000000008E-3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H17" s="1">
         <v>5.2146250000000005E-3</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1">
         <v>4.4471250000000006E-3</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="L17" s="1">
         <v>5.1701250000000011E-3</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N17" s="1">
         <v>7.1403750000000009E-3</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P17" s="1">
         <v>5.6685000000000008E-3</v>
@@ -6319,49 +6240,49 @@
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>5.4278750000000013E-3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1">
         <v>7.9607500000000008E-3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1">
         <v>6.3570000000000007E-3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H18" s="1">
         <v>5.5951250000000011E-3</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J18" s="1">
         <v>3.9281250000000011E-3</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L18" s="1">
         <v>5.2573750000000008E-3</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N18" s="1">
         <v>8.0472500000000006E-3</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="P18" s="1">
         <v>7.0185000000000013E-3</v>
@@ -6369,49 +6290,49 @@
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1">
         <v>4.0692500000000008E-3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1">
         <v>6.440625000000001E-3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1">
         <v>6.2145000000000013E-3</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H19" s="1">
         <v>6.0523750000000013E-3</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1">
         <v>4.1181250000000003E-3</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L19" s="1">
         <v>3.5145000000000007E-3</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N19" s="1">
         <v>8.4096250000000022E-3</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P19" s="1">
         <v>8.0245000000000021E-3</v>
@@ -6419,49 +6340,49 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>0.45612184532191902</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D20">
         <v>0.46354396283655175</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F20">
         <v>0.47356288309510569</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>0.46589184481653717</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J20">
         <v>0.52683136578138934</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L20">
         <v>0.56004737053016629</v>
       </c>
       <c r="M20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>0.48668453100316578</v>
       </c>
       <c r="O20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="P20">
         <v>0.47962715118448107</v>
@@ -6469,49 +6390,49 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>-0.42365632684553828</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D21">
         <v>-0.39657015176470123</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F21">
         <v>-0.40730313888017433</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>-0.37188556780649717</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J21">
         <v>-0.52709590825766439</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L21">
         <v>-0.39521531137781507</v>
       </c>
       <c r="M21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>-0.36085353353201338</v>
       </c>
       <c r="O21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="P21">
         <v>-0.33719840123659373</v>
@@ -6519,49 +6440,49 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>7.6650373549081705E-2</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D22">
         <v>9.5540072239003557E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F22">
         <v>6.9995370599699985E-2</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>6.5961187702318555E-2</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J22">
         <v>8.0874947288460342E-2</v>
       </c>
       <c r="K22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L22">
         <v>7.3939269670542485E-2</v>
       </c>
       <c r="M22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>8.2020663152855028E-2</v>
       </c>
       <c r="O22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="P22">
         <v>7.5180683996224379E-2</v>
@@ -6569,49 +6490,49 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>0.34378012500000005</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>0.38220350000000008</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F23">
         <v>0.40880025000000009</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H23">
         <v>0.38035625000000006</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J23">
         <v>0.30146387500000005</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L23">
         <v>0.32066350000000005</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>0.47412900000000008</v>
       </c>
       <c r="O23" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P23">
         <v>0.46773650000000005</v>
@@ -6619,49 +6540,49 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>0.33459137500000008</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>0.36965925000000005</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F24">
         <v>0.40076937500000009</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H24">
         <v>0.37375862500000007</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J24">
         <v>0.28347162500000006</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L24">
         <v>0.31830825000000007</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>0.47327187500000006</v>
       </c>
       <c r="O24" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P24">
         <v>0.4797256250000001</v>
@@ -6669,49 +6590,49 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>0.31135687500000003</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D25">
         <v>0.35543587500000007</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F25">
         <v>0.38403450000000006</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H25">
         <v>0.36025875000000007</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J25">
         <v>0.26630712500000003</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L25">
         <v>0.31009550000000002</v>
       </c>
       <c r="M25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>0.45708387500000008</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P25">
         <v>0.46993000000000007</v>
@@ -6719,49 +6640,49 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>0.29929525000000007</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D26">
         <v>0.34552812500000007</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F26">
         <v>0.35780825000000005</v>
       </c>
       <c r="G26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H26">
         <v>0.34356612500000006</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J26">
         <v>0.24862400000000004</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L26">
         <v>0.30732487500000005</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>0.44261312500000005</v>
       </c>
       <c r="O26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P26">
         <v>0.4512226250000001</v>
@@ -6769,49 +6690,49 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B27">
         <v>0.28663475000000005</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D27">
         <v>0.32808187500000008</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F27">
         <v>0.34352162500000005</v>
       </c>
       <c r="G27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H27">
         <v>0.33476325000000007</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J27">
         <v>0.22355200000000003</v>
       </c>
       <c r="K27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L27">
         <v>0.30733737500000002</v>
       </c>
       <c r="M27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>0.43381150000000007</v>
       </c>
       <c r="O27" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="P27">
         <v>0.44195562500000007</v>
@@ -6819,49 +6740,49 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B28">
         <v>0.28095362500000004</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>0.31726450000000006</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F28">
         <v>0.32606112500000006</v>
       </c>
       <c r="G28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H28">
         <v>0.32059612500000007</v>
       </c>
       <c r="I28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J28">
         <v>0.21226987500000002</v>
       </c>
       <c r="K28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L28">
         <v>0.29992525000000003</v>
       </c>
       <c r="M28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>0.44258275000000008</v>
       </c>
       <c r="O28" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="P28">
         <v>0.45258487500000005</v>
